--- a/medicine/Mort/Cimetière_de_Laurel_Grove/Cimetière_de_Laurel_Grove.xlsx
+++ b/medicine/Mort/Cimetière_de_Laurel_Grove/Cimetière_de_Laurel_Grove.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Laurel_Grove</t>
+          <t>Cimetière_de_Laurel_Grove</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Laurel Grove est un cimetière situé dans le centre-ville de Savannah, en Géorgie. Il comprend le cimetière d'origine pour les Blancs (maintenant connu comme Laurel Grove North) et un terrain de sépulture associé (appelé Laurel Grove South) qui a été réservé pour les esclaves et les gens de couleur libres.
-Le cimetière d'origine a d'innombrables tombes de d'anciens combattants confédérés de Savannah de la guerre de Sécession. Laurel Grove South contient les tombes de milliers d'esclaves et de Noirs libres de la côte de la Géorgie. Le cimetière a été consacré en 1852. L'avocat et poète Henry Rootes Jackson a fait le discours de consécration[1].
+Le cimetière d'origine a d'innombrables tombes de d'anciens combattants confédérés de Savannah de la guerre de Sécession. Laurel Grove South contient les tombes de milliers d'esclaves et de Noirs libres de la côte de la Géorgie. Le cimetière a été consacré en 1852. L'avocat et poète Henry Rootes Jackson a fait le discours de consécration.
 Avec de luxuriantes plantations et des pierres magnifiquement gravées, les deux sections du cimetière de Laurel Grove ressemblent plus aux célèbres cimetières de l'époque victorienne comme le Green-Wood à New York et le Père Lachaise à Paris.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Laurel_Grove</t>
+          <t>Cimetière_de_Laurel_Grove</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que prévu dès 1818, Laurel Grove accueille pour la première fois des sépultures en 1853. Les administrateurs de Laurel Grove ont lancé récemment un plan ambitieux pour l'informatisation des registres des inhumation du cimetière.
 </t>
